--- a/BINOD subba WORK FINISHED +.xlsx
+++ b/BINOD subba WORK FINISHED +.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="363">
   <si>
     <t>HYPERLINK</t>
   </si>
@@ -1199,6 +1199,9 @@
   </si>
   <si>
     <t>BACK TO HYPERLINK CLASSWORK</t>
+  </si>
+  <si>
+    <t>dsfgdgfd</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1453,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1533,6 +1536,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,17 +1621,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1682,9 +1686,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23946838706230564"/>
-          <c:y val="4.8532616349785791E-2"/>
-          <c:w val="0.75067957130359253"/>
+          <c:x val="0.23946838706230572"/>
+          <c:y val="4.8532616349785805E-2"/>
+          <c:w val="0.75067957130359286"/>
           <c:h val="0.79822506561679785"/>
         </c:manualLayout>
       </c:layout>
@@ -1838,25 +1842,25 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="68638976"/>
-        <c:axId val="68644864"/>
+        <c:axId val="60373248"/>
+        <c:axId val="60379136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68638976"/>
+        <c:axId val="60373248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68644864"/>
+        <c:crossAx val="60379136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68644864"/>
+        <c:axId val="60379136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +1868,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68638976"/>
+        <c:crossAx val="60373248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,7 +1881,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1986,25 +1990,25 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68673536"/>
-        <c:axId val="68675072"/>
+        <c:axId val="60416000"/>
+        <c:axId val="60417536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68673536"/>
+        <c:axId val="60416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68675072"/>
+        <c:crossAx val="60417536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68675072"/>
+        <c:axId val="60417536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2016,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68673536"/>
+        <c:crossAx val="60416000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2025,7 +2029,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2148,7 +2152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2165,7 +2169,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.24583552055993024"/>
-          <c:y val="2.3133542105961184E-2"/>
+          <c:y val="2.3133542105961188E-2"/>
           <c:w val="0.61241579177602756"/>
           <c:h val="0.7988267104613157"/>
         </c:manualLayout>
@@ -2261,25 +2265,25 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="70029312"/>
-        <c:axId val="70030848"/>
+        <c:axId val="60723200"/>
+        <c:axId val="60724736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70029312"/>
+        <c:axId val="60723200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70030848"/>
+        <c:crossAx val="60724736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70030848"/>
+        <c:axId val="60724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2291,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70029312"/>
+        <c:crossAx val="60723200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,7 +2304,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2402,25 +2406,25 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="70206976"/>
-        <c:axId val="70208512"/>
+        <c:axId val="62273024"/>
+        <c:axId val="62274560"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="70206976"/>
+        <c:axId val="62273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70208512"/>
+        <c:crossAx val="62274560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70208512"/>
+        <c:axId val="62274560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2432,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70206976"/>
+        <c:crossAx val="62273024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2441,7 +2445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2459,8 +2463,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17680837814008721"/>
           <c:y val="9.1970763610688094E-2"/>
-          <c:w val="0.60015147768423216"/>
-          <c:h val="0.66879646721976294"/>
+          <c:w val="0.60015147768423238"/>
+          <c:h val="0.66879646721976305"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2563,22 +2567,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="70228992"/>
-        <c:axId val="70247168"/>
+        <c:axId val="62295040"/>
+        <c:axId val="62313216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70228992"/>
+        <c:axId val="62295040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70247168"/>
+        <c:crossAx val="62313216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70247168"/>
+        <c:axId val="62313216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2590,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70228992"/>
+        <c:crossAx val="62295040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2599,7 +2603,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2625,7 +2629,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="SCREENSHOT 1.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2673,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="SCREENSHOT 2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2717,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="SCREENSHOT 3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2761,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="SCREENSHOT 4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2805,7 @@
         <xdr:cNvPr id="7" name="Picture 6" descr="SCREENSHOT 5.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2854,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2890,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2926,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2962,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2998,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3034,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3070,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,12 +3438,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
@@ -3600,14 +3604,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
@@ -3789,56 +3793,56 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
     </row>
     <row r="23" spans="4:12">
       <c r="L23" s="9" t="s">
@@ -3872,14 +3876,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -3894,12 +3898,12 @@
       <c r="E4" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
@@ -3920,10 +3924,10 @@
         <f>COUNTIF(A5:B34,"fanita")</f>
         <v>6</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -3932,10 +3936,10 @@
       <c r="B6" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -3968,14 +3972,14 @@
       <c r="B10" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -3984,14 +3988,14 @@
       <c r="B11" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -4000,12 +4004,12 @@
       <c r="B12" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -4014,12 +4018,12 @@
       <c r="B13" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
@@ -4028,12 +4032,12 @@
       <c r="B14" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
@@ -4228,14 +4232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:17">
@@ -4251,15 +4255,15 @@
       <c r="G4" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17">
       <c r="E5" t="s">
@@ -4282,14 +4286,14 @@
       <c r="G6" t="s">
         <v>186</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
     </row>
     <row r="7" spans="1:17">
       <c r="E7" t="s">
@@ -4301,12 +4305,12 @@
       <c r="G7" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
     </row>
     <row r="8" spans="1:17">
       <c r="E8" t="s">
@@ -4318,12 +4322,12 @@
       <c r="G8" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
     </row>
     <row r="9" spans="1:17">
       <c r="E9" t="s">
@@ -4337,20 +4341,20 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="91" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
       <c r="I12">
         <f>SUMIF(F5:F9,"&lt;40")</f>
         <v>60</v>
@@ -4363,12 +4367,12 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
       <c r="I14">
         <f>SUMIF(G5:G9,"science",F5:F9)</f>
         <v>60</v>
@@ -4383,12 +4387,12 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
       <c r="I15">
         <f>COUNTIF(F5:F9,"&gt;35")</f>
         <v>3</v>
@@ -4403,12 +4407,12 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
       <c r="I16">
         <f>AVERAGEIF(F5:F9,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -4456,13 +4460,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -4622,73 +4626,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:14">
       <c r="C10" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="13" spans="1:14">
       <c r="N13" s="9" t="s">
@@ -4734,30 +4738,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="10" t="s">
@@ -4801,47 +4805,47 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="27" spans="1:10">
       <c r="J27" s="9" t="s">
@@ -4850,15 +4854,15 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7"/>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7"/>
@@ -4873,82 +4877,82 @@
     <row r="36" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -4995,67 +4999,67 @@
       <c r="H47" s="7"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="C60" s="76" t="s">
+      <c r="C60" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" s="96" t="s">
@@ -5069,261 +5073,256 @@
       <c r="H80" s="96"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="C82" s="97" t="s">
+      <c r="C82" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="88"/>
-      <c r="E82" s="88"/>
-      <c r="F82" s="88"/>
-      <c r="G82" s="88"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="89"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="89"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="89"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="88"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="89"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="88"/>
-      <c r="G86" s="88"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="89"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="88"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="89"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="93" t="s">
+      <c r="B104" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="93"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="93"/>
-      <c r="H104" s="93"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="94"/>
+      <c r="H104" s="94"/>
     </row>
     <row r="106" spans="2:8">
-      <c r="C106" s="97" t="s">
+      <c r="C106" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
+      <c r="G106" s="89"/>
     </row>
     <row r="107" spans="2:8">
-      <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
+      <c r="G107" s="89"/>
     </row>
     <row r="108" spans="2:8">
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="88"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="89"/>
+      <c r="G108" s="89"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="89"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="C110" s="88"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="88"/>
-      <c r="G110" s="88"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="89"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="78" t="s">
+      <c r="A113" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="78"/>
-      <c r="E113" s="78"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="B126" s="93" t="s">
+      <c r="B126" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="C126" s="93"/>
-      <c r="D126" s="93"/>
-      <c r="E126" s="93"/>
-      <c r="F126" s="93"/>
-      <c r="G126" s="93"/>
-      <c r="H126" s="93"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="94"/>
+      <c r="E126" s="94"/>
+      <c r="F126" s="94"/>
+      <c r="G126" s="94"/>
+      <c r="H126" s="94"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="C128" s="76" t="s">
+      <c r="C128" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="72"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="C129" s="71"/>
-      <c r="D129" s="71"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="C130" s="71"/>
-      <c r="D130" s="71"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="72"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="C132" s="71"/>
-      <c r="D132" s="71"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="78" t="s">
+      <c r="A135" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="B135" s="78"/>
-      <c r="C135" s="78"/>
-      <c r="D135" s="78"/>
-      <c r="E135" s="78"/>
+      <c r="B135" s="79"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="93" t="s">
+      <c r="B147" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="C147" s="93"/>
-      <c r="D147" s="93"/>
-      <c r="E147" s="93"/>
-      <c r="F147" s="93"/>
-      <c r="G147" s="93"/>
-      <c r="H147" s="93"/>
+      <c r="C147" s="94"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="94"/>
+      <c r="F147" s="94"/>
+      <c r="G147" s="94"/>
+      <c r="H147" s="94"/>
     </row>
     <row r="149" spans="2:8">
-      <c r="C149" s="97" t="s">
+      <c r="C149" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="D149" s="88"/>
-      <c r="E149" s="88"/>
-      <c r="F149" s="88"/>
-      <c r="G149" s="88"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="89"/>
+      <c r="F149" s="89"/>
+      <c r="G149" s="89"/>
     </row>
     <row r="150" spans="2:8">
-      <c r="C150" s="88"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="88"/>
-      <c r="F150" s="88"/>
-      <c r="G150" s="88"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="89"/>
+      <c r="G150" s="89"/>
     </row>
     <row r="151" spans="2:8">
-      <c r="C151" s="88"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="88"/>
-      <c r="F151" s="88"/>
-      <c r="G151" s="88"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="89"/>
+      <c r="E151" s="89"/>
+      <c r="F151" s="89"/>
+      <c r="G151" s="89"/>
     </row>
     <row r="152" spans="2:8">
-      <c r="C152" s="88"/>
-      <c r="D152" s="88"/>
-      <c r="E152" s="88"/>
-      <c r="F152" s="88"/>
-      <c r="G152" s="88"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
     </row>
     <row r="153" spans="2:8">
-      <c r="C153" s="88"/>
-      <c r="D153" s="88"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="88"/>
-      <c r="G153" s="88"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="89"/>
+      <c r="G153" s="89"/>
     </row>
     <row r="154" spans="2:8">
-      <c r="C154" s="88"/>
-      <c r="D154" s="88"/>
-      <c r="E154" s="88"/>
-      <c r="F154" s="88"/>
-      <c r="G154" s="88"/>
+      <c r="C154" s="89"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="89"/>
+      <c r="G154" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="C128:G133"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="C149:G154"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="C106:G111"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="C60:G65"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C15:G17"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="B80:H80"/>
@@ -5332,11 +5331,16 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="C36:G42"/>
     <mergeCell ref="B58:H58"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="C106:G111"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="C60:G65"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="C128:G133"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="C149:G154"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J27" location="'HYPERLINK CLASS WORK'!A1" display="BACK TO HYPERLINK CLASS WORK"/>
@@ -5369,14 +5373,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:15">
       <c r="O2" t="s">
@@ -5408,14 +5412,14 @@
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="K5" s="13" t="s">
         <v>249</v>
       </c>
@@ -5424,20 +5428,20 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="K7" s="13" t="s">
         <v>251</v>
       </c>
@@ -5446,20 +5450,20 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="11" spans="1:15">
       <c r="O11" t="s">
@@ -5617,11 +5621,11 @@
       <c r="C33" s="5"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="19" t="s">
@@ -5784,16 +5788,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="32" t="s">
@@ -5881,133 +5885,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
     </row>
     <row r="20" spans="16:16">
       <c r="P20" s="9" t="s">
@@ -6116,7 +6120,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:M26"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6138,301 +6142,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="1"/>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="H8" s="75" t="s">
+      <c r="D8" s="75"/>
+      <c r="H8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="70" t="s">
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
       <c r="S15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-    </row>
-    <row r="17" spans="4:13">
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-    </row>
-    <row r="20" spans="4:13">
-      <c r="D20" s="67" t="s">
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+    </row>
+    <row r="17" spans="4:16">
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+    </row>
+    <row r="19" spans="4:16">
+      <c r="P19" s="66" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16">
+      <c r="D20" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68" t="s">
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-    </row>
-    <row r="21" spans="4:13">
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-    </row>
-    <row r="22" spans="4:13">
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-    </row>
-    <row r="23" spans="4:13">
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-    </row>
-    <row r="24" spans="4:13">
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-    </row>
-    <row r="25" spans="4:13">
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-    </row>
-    <row r="26" spans="4:13">
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-    </row>
-    <row r="28" spans="4:13">
-      <c r="D28" s="66" t="s">
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+    </row>
+    <row r="21" spans="4:16">
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+    </row>
+    <row r="22" spans="4:16">
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+    </row>
+    <row r="23" spans="4:16">
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+    </row>
+    <row r="24" spans="4:16">
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+    </row>
+    <row r="25" spans="4:16">
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+    </row>
+    <row r="26" spans="4:16">
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+    </row>
+    <row r="28" spans="4:16">
+      <c r="D28" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="70" t="s">
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-    </row>
-    <row r="29" spans="4:13">
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-    </row>
-    <row r="30" spans="4:13">
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-    </row>
-    <row r="31" spans="4:13">
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-    </row>
-    <row r="32" spans="4:13">
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+    </row>
+    <row r="29" spans="4:16">
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="4:16">
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="4:16">
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="4:16">
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
     </row>
     <row r="33" spans="8:14">
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
     </row>
     <row r="34" spans="8:14">
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
     </row>
     <row r="35" spans="8:14">
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
     </row>
     <row r="39" spans="8:14">
       <c r="N39" s="9" t="s">
@@ -6474,88 +6483,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" s="9" t="s">
@@ -6586,24 +6595,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -6883,11 +6892,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
@@ -7199,878 +7208,878 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="83"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="83"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="83"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="83"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="83"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="83"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="83"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="83"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="83"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="85"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="85"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="85"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="85"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="85"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="85"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="85"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="85"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="85"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
+      <c r="A82" s="86"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="83"/>
-      <c r="B85" s="83"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="81"/>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="81"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="81"/>
+      <c r="A88" s="82"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="81"/>
-      <c r="B89" s="81"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
+      <c r="A89" s="82"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="82"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="81"/>
-      <c r="B90" s="81"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="81"/>
-      <c r="B91" s="81"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="81"/>
-      <c r="E91" s="81"/>
+      <c r="A91" s="82"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="81"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="81"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="81"/>
+      <c r="A92" s="82"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="81"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="81"/>
+      <c r="A93" s="82"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="81"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="81"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="81"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
+      <c r="A95" s="82"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="81"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="81"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="81"/>
-      <c r="B97" s="81"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
+      <c r="A97" s="82"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="86" t="s">
+      <c r="A99" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="81"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="81"/>
-      <c r="E99" s="81"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="81"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="81"/>
+      <c r="A100" s="82"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="81"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="81"/>
+      <c r="A101" s="82"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="81"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
+      <c r="A102" s="82"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="81"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
+      <c r="A103" s="82"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="81"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="81"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="81"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="81"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="81"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="81"/>
-      <c r="B109" s="81"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="81"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="81" t="s">
+      <c r="A111" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="81"/>
-      <c r="C111" s="81"/>
-      <c r="D111" s="81"/>
-      <c r="E111" s="81"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="82"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="81"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="81"/>
-      <c r="E112" s="81"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="77"/>
-      <c r="B114" s="77"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
+      <c r="A114" s="78"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="77"/>
-      <c r="B115" s="77"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
+      <c r="A115" s="78"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="78"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="77"/>
-      <c r="B116" s="77"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
+      <c r="A116" s="78"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="78"/>
+      <c r="E116" s="78"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="77"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
+      <c r="A117" s="78"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="77"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
+      <c r="A118" s="78"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="78"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="77"/>
-      <c r="B119" s="77"/>
-      <c r="C119" s="77"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="77"/>
+      <c r="A119" s="78"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="78"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="77"/>
-      <c r="B120" s="77"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
+      <c r="A120" s="78"/>
+      <c r="B120" s="78"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="78"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="77"/>
-      <c r="B121" s="77"/>
-      <c r="C121" s="77"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
+      <c r="A121" s="78"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="78"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="77"/>
-      <c r="B122" s="77"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
+      <c r="A122" s="78"/>
+      <c r="B122" s="78"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="78"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="77"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
+      <c r="A123" s="78"/>
+      <c r="B123" s="78"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="78"/>
+      <c r="E123" s="78"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="77"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
+      <c r="A124" s="78"/>
+      <c r="B124" s="78"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="78"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="82" t="s">
+      <c r="A126" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
+      <c r="B126" s="78"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="78"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="77"/>
-      <c r="B127" s="77"/>
-      <c r="C127" s="77"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="77"/>
+      <c r="A127" s="78"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="78"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="77"/>
-      <c r="B128" s="77"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="77"/>
+      <c r="A128" s="78"/>
+      <c r="B128" s="78"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="77"/>
-      <c r="B129" s="77"/>
-      <c r="C129" s="77"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
+      <c r="A129" s="78"/>
+      <c r="B129" s="78"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="78"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="77"/>
-      <c r="B130" s="77"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
+      <c r="A130" s="78"/>
+      <c r="B130" s="78"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="78"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="77"/>
-      <c r="B131" s="77"/>
-      <c r="C131" s="77"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="77"/>
+      <c r="A131" s="78"/>
+      <c r="B131" s="78"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="78"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="77"/>
-      <c r="B132" s="77"/>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
+      <c r="A132" s="78"/>
+      <c r="B132" s="78"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="78"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="77"/>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
+      <c r="A133" s="78"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="78"/>
+      <c r="E133" s="78"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="77"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
+      <c r="A134" s="78"/>
+      <c r="B134" s="78"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="78"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="77"/>
-      <c r="B135" s="77"/>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
+      <c r="A135" s="78"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="78"/>
+      <c r="E135" s="78"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="15"/>
@@ -8087,20 +8096,20 @@
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="77" t="s">
+      <c r="A139" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B139" s="77"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
+      <c r="B139" s="78"/>
+      <c r="C139" s="78"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="78"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="77"/>
-      <c r="B140" s="77"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="77"/>
+      <c r="A140" s="78"/>
+      <c r="B140" s="78"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="78"/>
+      <c r="E140" s="78"/>
     </row>
     <row r="142" spans="1:6">
       <c r="F142" s="9" t="s">
@@ -8154,43 +8163,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="71"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -8248,50 +8257,50 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="71"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="71"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -8360,24 +8369,24 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
     </row>
     <row r="32" spans="1:6">
       <c r="E32" s="9" t="s">
@@ -8418,22 +8427,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -8467,40 +8476,40 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" s="9" t="s">
@@ -8544,32 +8553,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2"/>
@@ -8746,14 +8755,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:7">
       <c r="D2" t="s">
@@ -8911,40 +8920,40 @@
       <c r="G9" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
     </row>
     <row r="20" spans="2:8">
       <c r="H20" s="9" t="s">
@@ -8982,14 +8991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5"/>
@@ -9070,40 +9079,40 @@
       <c r="G7" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" s="9" t="s">
@@ -9141,78 +9150,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="89"/>
       <c r="D4" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="88" t="s">
         <v>135</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="67"/>
-      <c r="D8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="88" t="s">
         <v>136</v>
       </c>
       <c r="C10" s="3">
@@ -9223,7 +9232,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="3">
         <v>44564</v>
       </c>
@@ -9232,7 +9241,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="3">
         <v>44562</v>
       </c>
@@ -9243,11 +9252,11 @@
     <row r="15" spans="1:11">
       <c r="C15" s="3">
         <f ca="1">TODAY()</f>
-        <v>44658</v>
+        <v>44701</v>
       </c>
       <c r="D15" s="18">
         <f ca="1">NOW()</f>
-        <v>44658.51848564815</v>
+        <v>44701.774423148148</v>
       </c>
       <c r="E15">
         <f>MONTH(C11)</f>
@@ -9257,13 +9266,13 @@
     <row r="16" spans="1:11">
       <c r="E16" s="3">
         <f ca="1">TODAY()</f>
-        <v>44658</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="17" spans="5:12">
       <c r="E17" s="18">
         <f ca="1">NOW()</f>
-        <v>44658.51848564815</v>
+        <v>44701.774423148148</v>
       </c>
     </row>
     <row r="18" spans="5:12">
